--- a/ChessGameUML.xlsx
+++ b/ChessGameUML.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\Documents\Visual Studio 2017\Projects\ChessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -205,6 +205,12 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
             <a:t>- color : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>-board : Board</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/ChessGameUML.xlsx
+++ b/ChessGameUML.xlsx
@@ -77,16 +77,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>51436</xdr:rowOff>
+      <xdr:rowOff>89536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -101,7 +101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="2223136"/>
+          <a:off x="476250" y="2261236"/>
           <a:ext cx="2750820" cy="3120390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -252,7 +252,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="1" baseline="0"/>
-            <a:t>+ getDestinations(int[] position)</a:t>
+            <a:t>+ getDestinations(int posX, int posY)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -270,16 +270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -294,7 +294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609599" y="190499"/>
+          <a:off x="1562099" y="200024"/>
           <a:ext cx="3648076" cy="1962151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -345,7 +345,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- board : Piece[][]</a:t>
+            <a:t>- board : BoardSpace[][]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -642,6 +642,133 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
             <a:t>+ promptDestinationSelect();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A780605-456C-409D-B927-2201B4BFA869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="2270761"/>
+          <a:ext cx="2750820" cy="1844039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" i="0" u="none"/>
+            <a:t>BoardSpace</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="1" i="0" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" u="none" baseline="0"/>
+            <a:t>------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- occupied</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> : bool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- isPossibleDestionation : bool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- piece : Piece</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>+ getters and setters for all variables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+            <a:t>+ getBoardSpaceChar()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+            <a:t>Note : This class is a Struct</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -951,7 +1078,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ChessGameUML.xlsx
+++ b/ChessGameUML.xlsx
@@ -351,13 +351,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- deadBlack : hashmap of Piece</a:t>
+            <a:t>- deadBlack : dictionary of Piece</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- deadWhite : hashmap of Piece</a:t>
+            <a:t>- deadWhite : dictionary of Piece</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -369,7 +369,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>+ getPiece(int x, int y)</a:t>
+            <a:t>+ getBoardSpace(int x, int y)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -382,12 +382,6 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
             <a:t>+ killPiece(int[] source)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
-            <a:t>+ isFinished()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -528,6 +522,12 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
             <a:t>+ updatetextView()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+            <a:t>+ isFinished()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ChessGameUML.xlsx
+++ b/ChessGameUML.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -385,6 +385,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+            <a:t>+ toString()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
+            <a:t>     + dictionaryToString(dictionary of Piece)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-CA" sz="1100" i="0" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -624,12 +636,6 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
             <a:t>+ update()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>+ update(jagged array of int[])</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/ChessGameUML.xlsx
+++ b/ChessGameUML.xlsx
@@ -351,13 +351,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- deadBlack : dictionary of Piece</a:t>
+            <a:t>- deadBlack : LinkedList of Piece</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- deadWhite : dictionary of Piece</a:t>
+            <a:t>- deadWhite : LinkedList of Piece</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -393,7 +393,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0"/>
-            <a:t>     + dictionaryToString(dictionary of Piece)</a:t>
+            <a:t>     + deadPiecesToString(dictionary of Piece)</a:t>
           </a:r>
         </a:p>
         <a:p>
